--- a/Positive_Ki.xlsx
+++ b/Positive_Ki.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sjsu0-my.sharepoint.com/personal/peter_v_pham_sjsu_edu/Documents/Antithrombin Feature Extraction/Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{3BF33AFC-5D15-4770-8B6F-F5CF68BA9514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1633A5F6-60BB-4ACE-9DA6-7D058BE0240B}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{3BF33AFC-5D15-4770-8B6F-F5CF68BA9514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE3B3764-C3B8-4132-B4BB-4E6FC9DE0CB9}"/>
   <bookViews>
-    <workbookView xWindow="39920" yWindow="70" windowWidth="24500" windowHeight="20810" xr2:uid="{3F618A3E-F126-44A6-B110-75606D8069E6}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3F618A3E-F126-44A6-B110-75606D8069E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -369,12 +372,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -387,14 +387,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -407,10 +403,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -736,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E740D813-21A2-4497-A881-C14662550A09}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -747,598 +753,603 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28" customHeight="1" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="9">
         <v>1.2E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="28">
+      <c r="A3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2.0999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="42">
+      <c r="A4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4.9299999999999999E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5.8E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16">
+        <v>6.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28">
+      <c r="A7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="42">
+      <c r="A8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1.7200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" thickBot="1">
+      <c r="A10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5.1000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="42.5" customHeight="1" thickBot="1">
+      <c r="A11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="9">
+        <v>5.8399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" thickBot="1">
+      <c r="A12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="9">
+        <v>9.1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="99" customHeight="1" thickBot="1">
+      <c r="A14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="42.5" thickBot="1">
+      <c r="A15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="42">
+      <c r="A17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8">
+        <v>4.8900000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="42">
+      <c r="A18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="6">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" thickBot="1">
+      <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" thickBot="1">
+      <c r="A22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B22" s="9">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="11">
-        <v>5.1000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="11">
-        <v>9.1E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+    <row r="23" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" thickBot="1">
+      <c r="A24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="42.5" thickBot="1">
+      <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" thickBot="1">
+      <c r="A26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" thickBot="1">
+      <c r="A27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" thickBot="1">
+      <c r="A28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" thickBot="1">
+      <c r="A29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28">
+      <c r="A31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="44" customHeight="1" thickBot="1">
+      <c r="A32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28" customHeight="1" thickBot="1">
+      <c r="A33" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B33" s="9">
         <v>0.63</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+    <row r="34" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" thickBot="1">
+      <c r="A35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" thickBot="1">
+      <c r="A36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="9">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" thickBot="1">
+      <c r="A38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16" thickBot="1">
+      <c r="A39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16" thickBot="1">
+      <c r="A40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16" thickBot="1">
+      <c r="A41" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" thickBot="1">
+      <c r="A42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="9">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="56" customHeight="1" thickBot="1">
+      <c r="A43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="9">
+        <v>6.0750000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" thickBot="1">
+      <c r="A44" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" thickBot="1">
+      <c r="A46" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="9">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="10">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="56.5" thickBot="1">
+      <c r="A48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="43" customHeight="1" thickBot="1">
+      <c r="A49" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B49" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" thickBot="1">
-      <c r="A9" s="12" t="s">
+    <row r="50" spans="1:2" ht="16" thickBot="1">
+      <c r="A50" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="7" customFormat="1" ht="88.5" customHeight="1" thickBot="1">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16" thickBot="1">
+      <c r="A52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="9">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="9">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" thickBot="1">
+      <c r="A54" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="42.5" thickBot="1">
+      <c r="A55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16" thickBot="1">
+      <c r="A57" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="2">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="6">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="42.5" thickBot="1">
+      <c r="A61" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="56.5" thickBot="1">
+      <c r="A62" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="7" customFormat="1" ht="16" thickBot="1">
+      <c r="A63" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B63" s="9">
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="12">
-        <v>2.0999999999999999E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="42.5" customHeight="1" thickBot="1">
-      <c r="A11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="12">
-        <v>4.9299999999999999E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1.7200000000000001E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="99" customHeight="1" thickBot="1">
-      <c r="A14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="12">
-        <v>5.8399999999999999E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+    <row r="64" spans="1:2" s="7" customFormat="1" ht="16" thickBot="1">
+      <c r="A64" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="9">
+        <v>686.58900000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="7" customFormat="1" ht="16" thickBot="1">
+      <c r="A65" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="17">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="42.5" customHeight="1">
+      <c r="A66" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="8">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="7" customFormat="1" ht="28.5" thickBot="1">
+      <c r="A67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="9">
+        <v>40050</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="52.5" customHeight="1">
+      <c r="A68" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="3">
+        <v>42300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="9">
+        <v>46130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16" thickBot="1">
+      <c r="A70" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="9">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B71" s="11">
         <v>500000</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="11">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" thickBot="1">
-      <c r="A19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A22" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="12">
-        <v>4.8900000000000002E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="12">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="12">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="12">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="12">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="8">
-        <v>7.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" thickBot="1">
-      <c r="A28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="12">
-        <v>1.04E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" thickBot="1">
-      <c r="A29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="12">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="11">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="11">
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="44" customHeight="1" thickBot="1">
-      <c r="A32" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="28" customHeight="1" thickBot="1">
-      <c r="A33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="12">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" thickBot="1">
-      <c r="A34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="12">
-        <v>0.54500000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" thickBot="1">
-      <c r="A35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="12">
-        <v>0.83499999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" thickBot="1">
-      <c r="A36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="12">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" thickBot="1">
-      <c r="A37" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="12">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" thickBot="1">
-      <c r="A38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="12">
-        <v>5.76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" thickBot="1">
-      <c r="A39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="12">
-        <v>32.04</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" thickBot="1">
-      <c r="A40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="12">
-        <v>6.0750000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" thickBot="1">
-      <c r="A41" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" thickBot="1">
-      <c r="A42" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="12">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="56" customHeight="1" thickBot="1">
-      <c r="A43" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A44" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" thickBot="1">
-      <c r="A45" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="12">
-        <v>686.58900000000006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A46" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="12">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="13">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" thickBot="1">
-      <c r="A48" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="12">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="43" customHeight="1" thickBot="1">
-      <c r="A49" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="12">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="9" customFormat="1" ht="88.5" customHeight="1" thickBot="1">
-      <c r="A51" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="8">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="56.5" thickBot="1">
-      <c r="A52" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" thickBot="1">
-      <c r="A53" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A54" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="12">
-        <v>55.56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A55" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="12">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A56" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="12">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A57" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="12">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A58" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="12">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A59" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="12">
-        <v>40050</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="12">
-        <v>46130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" thickBot="1">
-      <c r="A61" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="12">
-        <v>42300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16" thickBot="1">
-      <c r="A62" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="12">
-        <v>61000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="9" customFormat="1" ht="16" thickBot="1">
-      <c r="A63" s="8" t="s">
+    <row r="72" spans="1:2" ht="16" thickBot="1">
+      <c r="A72" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="6">
+        <v>1520000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16" thickBot="1">
+      <c r="A73" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B73" s="6">
         <v>1750000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="9" customFormat="1" ht="16" thickBot="1">
-      <c r="A64" s="8" t="s">
+    <row r="74" spans="1:2" ht="16" thickBot="1">
+      <c r="A74" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B74" s="6">
         <v>29270000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="9" customFormat="1" ht="16" thickBot="1">
-      <c r="A65" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="8">
-        <v>1520000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="42.5" customHeight="1">
-      <c r="A66" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="11">
-        <v>5.8E-5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="9" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A67" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="8">
-        <v>64.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="52.5" customHeight="1">
-      <c r="A68" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="4">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="16" thickBot="1">
-      <c r="A69" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="16" thickBot="1">
-      <c r="A70" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" s="3">
-        <v>64.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="16">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A72" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="3">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A73" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="3">
-        <v>6.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A74" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="3">
-        <v>350</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{E740D813-21A2-4497-A881-C14662550A09}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B74">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Positive_Ki.xlsx
+++ b/Positive_Ki.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{3BF33AFC-5D15-4770-8B6F-F5CF68BA9514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE3B3764-C3B8-4132-B4BB-4E6FC9DE0CB9}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3F618A3E-F126-44A6-B110-75606D8069E6}"/>
+    <workbookView xWindow="-19290" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{3F618A3E-F126-44A6-B110-75606D8069E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -372,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,27 +398,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -742,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E740D813-21A2-4497-A881-C14662550A09}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -761,63 +765,63 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>1.2E-5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>2.0999999999999999E-5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="42">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>4.9299999999999999E-5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>5.8E-5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>1E-4</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>1.7200000000000001E-4</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2">
@@ -825,31 +829,31 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" thickBot="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>5.1000000000000004E-4</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="42.5" customHeight="1" thickBot="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>5.8399999999999999E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" thickBot="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>9.1E-4</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" thickBot="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="6">
@@ -857,42 +861,42 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="99" customHeight="1" thickBot="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>1E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="42">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>4.8900000000000002E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="42">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -905,50 +909,50 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" thickBot="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>1.04E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" thickBot="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="6">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" thickBot="1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="6">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" thickBot="1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
@@ -956,12 +960,12 @@
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="6">
         <v>0.09</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" thickBot="1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="6">
@@ -969,103 +973,103 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" thickBot="1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="6">
         <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" thickBot="1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>0.3</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="28">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="44" customHeight="1" thickBot="1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="6">
         <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="28" customHeight="1" thickBot="1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="6">
         <v>0.63</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="6">
         <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" thickBot="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="6">
         <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" thickBot="1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="6">
         <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="6">
         <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" thickBot="1">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="6">
         <v>1.23</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" thickBot="1">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="6">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" thickBot="1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="2">
@@ -1073,31 +1077,31 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" thickBot="1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="6">
         <v>3.5</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" thickBot="1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="6">
         <v>5.76</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="56" customHeight="1" thickBot="1">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="6">
         <v>6.0750000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" thickBot="1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="6">
@@ -1105,54 +1109,54 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="6">
         <v>7.5</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" thickBot="1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="6">
         <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="8">
         <v>17.2</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="56.5" thickBot="1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="43" customHeight="1" thickBot="1">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" thickBot="1">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="7" customFormat="1" ht="88.5" customHeight="1" thickBot="1">
+    <row r="51" spans="1:2" ht="88.5" customHeight="1" thickBot="1">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -1161,47 +1165,47 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="16" thickBot="1">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="6">
         <v>32.04</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="6">
         <v>55.56</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16" thickBot="1">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="6">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="6">
         <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="6">
         <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" thickBot="1">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="2">
@@ -1217,23 +1221,23 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="6">
         <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="6">
         <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="42.5" thickBot="1">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="2">
@@ -1241,55 +1245,55 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="56.5" thickBot="1">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="6">
         <v>380</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="7" customFormat="1" ht="16" thickBot="1">
-      <c r="A63" s="9" t="s">
+    <row r="63" spans="1:2" ht="16" thickBot="1">
+      <c r="A63" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="6">
         <v>550</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="7" customFormat="1" ht="16" thickBot="1">
-      <c r="A64" s="9" t="s">
+    <row r="64" spans="1:2" ht="16" thickBot="1">
+      <c r="A64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="6">
         <v>686.58900000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="7" customFormat="1" ht="16" thickBot="1">
-      <c r="A65" s="14" t="s">
+    <row r="65" spans="1:2" ht="16" thickBot="1">
+      <c r="A65" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="14">
         <v>4000</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="42.5" customHeight="1">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>26000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="7" customFormat="1" ht="28.5" thickBot="1">
-      <c r="A67" s="9" t="s">
+    <row r="67" spans="1:2" ht="28.5" thickBot="1">
+      <c r="A67" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="6">
         <v>40050</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="52.5" customHeight="1">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="3">
@@ -1297,31 +1301,31 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="28.5" thickBot="1">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="6">
         <v>46130</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" thickBot="1">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="6">
         <v>61000</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="8">
         <v>500000</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" thickBot="1">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B72" s="6">
